--- a/biology/Médecine/Exonucléophagie/Exonucléophagie.xlsx
+++ b/biology/Médecine/Exonucléophagie/Exonucléophagie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exonucl%C3%A9ophagie</t>
+          <t>Exonucléophagie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'exonucléophagie consiste en l'absorption du noyau du polynucléaire neutrophile par l'amibe Entamoeba gingivalis lors des parodontites chroniques et agressives. Ce phénomène laisse en place des globules blancs énucléés hors contrôle dans le biofilm de la gencive infectée et serait à l'origine de destruction tissulaire.
 </t>
